--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="Rbbd989ed3fcf4c34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R8711b3e614e54071"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -32,47 +32,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>HDX01</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trần Thị B</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/8/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX2</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trần Thị B</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/8/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX3</x:v>
+        <x:v>HDX_7</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Nguyễn Văn A</x:v>
@@ -84,50 +44,30 @@
         <x:v>123456789</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4/8/2023 12:00:00 AM</x:v>
+        <x:v>4/9/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>131111</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>HDX4</x:v>
+        <x:v>HDX_8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>cu Ân</x:v>
+        <x:v>Nguyễn Văn A</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>fsdfsdfsdfsf</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>942343242</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/8/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>1111</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX5</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trần Thị B</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
+        <x:v>123 Đường ABC, Quận 1, TP. HCM</x:v>
       </x:c>
       <x:c t="n">
         <x:v>123456789</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4/8/2023 12:00:00 AM</x:v>
+        <x:v>4/9/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>120000</x:v>
+        <x:v>52000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -152,10 +92,10 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Doanh thu 2023-04-08 -&gt; 2023-04-08</x:v>
+        <x:v>Doanh thu 2023-04-08 -&gt; 2023-04-29</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>252222</x:v>
+        <x:v>52000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R8711b3e614e54071"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R52e41a5ec3b84621"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -32,7 +32,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>HDX_7</x:v>
+        <x:v>HDX_1</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Nguyễn Văn A</x:v>
@@ -44,15 +44,55 @@
         <x:v>123456789</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4/9/2023 12:00:00 AM</x:v>
+        <x:v>4/1/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>0</x:v>
+        <x:v>1000000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>HDX_8</x:v>
+        <x:v>HDX_2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trần Thị B</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/2/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>HDX_3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Lê Văn C</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>789 Đường LMN, Quận 3, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/3/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>HDX_4</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Nguyễn Văn A</x:v>
@@ -64,10 +104,50 @@
         <x:v>123456789</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4/9/2023 12:00:00 AM</x:v>
+        <x:v>4/4/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>52000</x:v>
+        <x:v>4000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>HDX_5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trần Thị B</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/5/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>HDX_6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Lê Văn C</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>789 Đường LMN, Quận 3, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/6/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6000000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -92,10 +172,10 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Doanh thu 2023-04-08 -&gt; 2023-04-29</x:v>
+        <x:v>Doanh thu 2023-03-26 -&gt; 2023-04-08</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>52000</x:v>
+        <x:v>21000000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R52e41a5ec3b84621"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R7b35a1bbc5d04990"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -152,30 +152,70 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Doanh thu 2023-03-26 -&gt; 2023-04-08</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>21000000</x:v>
+        <x:v>HDX_7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trần Thị B</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/12/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>233000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>HDX_8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trần Thị B</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/12/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>177000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Doanh thu 2023-03-26 -&gt; 2023-05-06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21410000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R7b35a1bbc5d04990"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R967a0533cbd94928"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -78,7 +78,7 @@
         <x:v>Lê Văn C</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>789 Đường LMN, Quận 3, TP. HCM</x:v>
+        <x:v>789 Đường NVC, Quận 3, TP. HCM</x:v>
       </x:c>
       <x:c t="n">
         <x:v>123456789</x:v>
@@ -138,7 +138,7 @@
         <x:v>Lê Văn C</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>789 Đường LMN, Quận 3, TP. HCM</x:v>
+        <x:v>789 Đường NVC, Quận 3, TP. HCM</x:v>
       </x:c>
       <x:c t="n">
         <x:v>123456789</x:v>
@@ -148,46 +148,6 @@
       </x:c>
       <x:c t="n">
         <x:v>6000000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX_7</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trần Thị B</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/12/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>233000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX_8</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trần Thị B</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/12/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>177000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -212,10 +172,10 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Doanh thu 2023-03-26 -&gt; 2023-05-06</x:v>
+        <x:v>Doanh thu 2023-03-29 -&gt; 2023-04-08</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>21410000</x:v>
+        <x:v>21000000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R967a0533cbd94928"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R908f094f5ca24a1b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -47,32 +47,12 @@
         <x:v>4/1/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>1000000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
         <x:v>HDX_2</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trần Thị B</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/2/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>2000000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX_3</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Lê Văn C</x:v>
@@ -84,70 +64,10 @@
         <x:v>123456789</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4/3/2023 12:00:00 AM</x:v>
+        <x:v>4/14/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>3000000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX_4</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Nguyễn Văn A</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>123 Đường ABC, Quận 1, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/4/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>4000000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX_5</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Trần Thị B</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/5/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>5000000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>HDX_6</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Lê Văn C</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>789 Đường NVC, Quận 3, TP. HCM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>123456789</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4/6/2023 12:00:00 AM</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>6000000</x:v>
+        <x:v>97000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -172,10 +92,10 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Doanh thu 2023-03-29 -&gt; 2023-04-08</x:v>
+        <x:v>Doanh thu 2023-03-28 -&gt; 2023-05-06</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>21000000</x:v>
+        <x:v>97000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
+++ b/QLyBanVatTu/GUI/bin/Debug/DanhSachDonHang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="R908f094f5ca24a1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet 1" sheetId="1" r:id="Rb012dce0180b441b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -32,27 +32,27 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>HDX_1</x:v>
+        <x:v>HDX_2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Nguyễn Văn A</x:v>
+        <x:v>Trần Thị B</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>123 Đường ABC, Quận 1, TP. HCM</x:v>
+        <x:v>456 Đường XYZ, Quận 2, TP. HCM</x:v>
       </x:c>
       <x:c t="n">
         <x:v>123456789</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4/1/2023 12:00:00 AM</x:v>
+        <x:v>4/15/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>0</x:v>
+        <x:v>164000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>HDX_2</x:v>
+        <x:v>HDX_3</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Lê Văn C</x:v>
@@ -64,10 +64,50 @@
         <x:v>123456789</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4/14/2023 12:00:00 AM</x:v>
+        <x:v>4/15/2023 12:00:00 AM</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>97000</x:v>
+        <x:v>90000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>HDX_4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trần Thanh Kiệp</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>789 Đường NVL, Quận 5, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/15/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>367000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>HDX_5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Huỳnh Trung Tín</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>789 Đường 3/2, Quận 10, TP. HCM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>123456789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4/15/2023 12:00:00 AM</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>178000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -92,10 +132,10 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Doanh thu 2023-03-28 -&gt; 2023-05-06</x:v>
+        <x:v>Doanh thu 2023-04-04 -&gt; 2023-04-21</x:v>
       </x:c>
       <x:c t="n">
-        <x:v>97000</x:v>
+        <x:v>799000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
